--- a/秋招投递.xlsx
+++ b/秋招投递.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\freedman\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2000B526-687C-4EC4-A1C5-EDE5DB2FC23E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
   <si>
     <t>目前进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,35 +35,244 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>通用软件工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投递职位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2022.7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简历筛选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月下旬到9月初开始面试，未说明机试时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>华为半导体与器件部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用软件工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投递时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投递职位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022.7.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>简历筛选中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月下旬到9月初开始面试，未说明机试时间</t>
+  </si>
+  <si>
+    <t>boss直聘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开启秋招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>芯思原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计开启时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端研发/软件测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月中旬机试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://game.campus.163.com/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺瓦星云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++开发工程师（杭州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.kuaishou.cn/#/campus/my-apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地平线</t>
+  </si>
+  <si>
+    <t>后端软件工程师（南京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无笔试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wecruit.hotjob.cn/SU62d914f10dcad43c775ec125/pb/account.html#/myDeliver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shopee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/shopee/2962#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端软件工程师（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.sangfor.com/personalCenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>momenta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师-C++（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://momenta.jobs.feishu.cn/campus/position/application?spread=XKUKZGY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳元戎启行科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/deeproute/6487?recommendCode=NTAFmLX#/job/d38609fe-1604-4ad1-923b-7b9627df98d1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易雷火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏研发工程师（服务端方向，杭州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宁德时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师（机器视觉、C++）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐捷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/catlhr/73943#/candidateHome/applications</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leihuo.163.com/campus/#/full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/smartsenstech1/56088#/job/95f53fc5-04eb-430f-a2d2-cc3f6b4596bb/campus_apply/thanks?jobId=95f53fc5-04eb-430f-a2d2-cc3f6b4596bb&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSJB5Rwh&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=356627523</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思特威*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.hihonor.com/SU60eea919bef57c1023f6fe78/pb/account.html#/myDeliver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://transsion.zhiye.com/Portal/Apply/Index</t>
+  </si>
+  <si>
+    <t>https://campus.mihoyo.com/?recommendationCode=929T&amp;isRecommendation=true#/campus/position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米哈游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端软件工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测评</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.iflytek.com/official-pc/delivery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -71,7 +280,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +290,31 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -104,14 +338,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -389,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -401,45 +643,422 @@
     <col min="3" max="3" width="33.77734375" customWidth="1"/>
     <col min="4" max="4" width="38.44140625" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="6" max="6" width="47.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
         <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.31</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{24573650-21F5-4444-9A81-179CF6549F65}"/>
+    <hyperlink ref="F5" r:id="rId2" location="/campus/my-apply" xr:uid="{E8B61EC2-B5D6-4F3C-8373-649D18E23744}"/>
+    <hyperlink ref="F6" r:id="rId3" location="/myDeliver" xr:uid="{52A54312-F932-413F-8540-BD8EA50E1027}"/>
+    <hyperlink ref="F7" r:id="rId4" location="/candidateHome/applications" xr:uid="{9B646295-FD59-4976-A8DE-BA81C116058B}"/>
+    <hyperlink ref="F8" r:id="rId5" xr:uid="{392FFA28-798E-4326-9E68-722BEAD822EE}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{2D41AE62-10F1-4D4B-9A25-6B060B87EEF2}"/>
+    <hyperlink ref="F10" r:id="rId7" location="/job/d38609fe-1604-4ad1-923b-7b9627df98d1" xr:uid="{DC1064D8-B412-4DC9-8FE1-3BDFEB00C2D7}"/>
+    <hyperlink ref="F12" r:id="rId8" location="/candidateHome/applications" xr:uid="{378FA5D6-1950-416C-A9C4-A5EF505C775E}"/>
+    <hyperlink ref="F11" r:id="rId9" location="/full" xr:uid="{5B70AE1A-9D1A-49C2-A5A4-B6B74B3F705E}"/>
+    <hyperlink ref="F13" r:id="rId10" location="/job/95f53fc5-04eb-430f-a2d2-cc3f6b4596bb/campus_apply/thanks?jobId=95f53fc5-04eb-430f-a2d2-cc3f6b4596bb&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSJB5Rwh&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=356627523" display="https://app.mokahr.com/campus-recruitment/smartsenstech1/56088#/job/95f53fc5-04eb-430f-a2d2-cc3f6b4596bb/campus_apply/thanks?jobId=95f53fc5-04eb-430f-a2d2-cc3f6b4596bb&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSJB5Rwh&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=356627523" xr:uid="{D18F981C-45A9-440A-A74B-06C45C1D2870}"/>
+    <hyperlink ref="F14" r:id="rId11" location="/myDeliver" xr:uid="{47597EEA-06A6-47CE-B1CC-46E2E9679499}"/>
+    <hyperlink ref="F16" r:id="rId12" location="/campus/position" xr:uid="{688FEFA5-674A-4242-9C9A-326126B394BC}"/>
+    <hyperlink ref="F17" r:id="rId13" xr:uid="{18AB92C1-B942-4B3F-B440-51002D277DFC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
--- a/秋招投递.xlsx
+++ b/秋招投递.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2000B526-687C-4EC4-A1C5-EDE5DB2FC23E}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{783CB97D-F05C-41A0-A84E-57D8A54823C4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>目前进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,10 @@
   </si>
   <si>
     <t>https://campus.iflytek.com/official-pc/delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试没过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +638,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -826,6 +830,9 @@
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>47</v>

--- a/秋招投递.xlsx
+++ b/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{783CB97D-F05C-41A0-A84E-57D8A54823C4}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D458C683-62F9-4371-A86E-32907ECF7DF6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8175" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t>目前进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -277,6 +277,86 @@
   </si>
   <si>
     <t>笔试没过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节跳动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jobs.bytedance.com/campus/position?keywords=%E5%90%8E%E7%AB%AF&amp;category=6704215862603155720%2C6704215862557018372%2C6704215956018694411%2C6704215886108035339%2C6704215957146962184%2C6704215897130666254%2C6704215888985327886%2C6704215963966900491%2C6704215958816295181%2C6704216109274368264%2C6938376045242353957%2C6704216296701036811%2C6704217321877014787%2C6704219534724696331%2C6704219452277262596%2C6704216635923761412&amp;location=CT_125%2CCT_52&amp;project=&amp;type=2&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;referral_code=UM2EYUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.meituan.com/apply-record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.4399om.com/?r=userCenter/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猿辅导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/recommendation-apply/fenbi/1636?recommendCode=NTAMWIi#/job/63a595d2-923f-4fa6-8b2c-e35ed903bf03/campus_apply/thanks?jobId=63a595d2-923f-4fa6-8b2c-e35ed903bf03&amp;recommendCode=NTAMWIi&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360806625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万集科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://fpq5u8xh3h.jobs.feishu.cn/201211/position/application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影石创新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://insta360.m.zhiye.com/#/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/qianxin/29182?recommendCode=DSpCZzqZ#/job/0290cedb-e8bf-4f41-bf01-c7c1637f1e56/campus_apply/thanks?jobId=0290cedb-e8bf-4f41-bf01-c7c1637f1e56&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSpCZzqZ&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360812501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇安信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++服务端开发</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +426,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -354,6 +434,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -635,22 +718,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" customWidth="1"/>
+    <col min="1" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="47.21875" customWidth="1"/>
+    <col min="6" max="6" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -670,13 +753,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -693,7 +776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -713,7 +796,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -730,7 +813,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -750,7 +833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -767,7 +850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -784,7 +867,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -801,7 +884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -818,7 +901,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -838,7 +921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -855,7 +938,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -872,7 +955,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
@@ -889,7 +972,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -906,7 +989,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -923,7 +1006,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -940,113 +1023,229 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8.15</v>
+      </c>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="1">
+        <v>8.15</v>
+      </c>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>4399</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1">
+        <v>8.15</v>
+      </c>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="1">
+        <v>8.15</v>
+      </c>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1">
+        <v>8.15</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1">
+        <v>8.15</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8.15</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="5"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="5"/>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="5"/>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="5"/>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="5"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="5"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="5"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="5"/>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="5"/>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="5"/>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="5"/>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="5"/>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B47" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>75</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1064,8 +1263,15 @@
     <hyperlink ref="F14" r:id="rId11" location="/myDeliver" xr:uid="{47597EEA-06A6-47CE-B1CC-46E2E9679499}"/>
     <hyperlink ref="F16" r:id="rId12" location="/campus/position" xr:uid="{688FEFA5-674A-4242-9C9A-326126B394BC}"/>
     <hyperlink ref="F17" r:id="rId13" xr:uid="{18AB92C1-B942-4B3F-B440-51002D277DFC}"/>
+    <hyperlink ref="F19" r:id="rId14" display="https://jobs.bytedance.com/campus/position?keywords=%E5%90%8E%E7%AB%AF&amp;category=6704215862603155720%2C6704215862557018372%2C6704215956018694411%2C6704215886108035339%2C6704215957146962184%2C6704215897130666254%2C6704215888985327886%2C6704215963966900491%2C6704215958816295181%2C6704216109274368264%2C6938376045242353957%2C6704216296701036811%2C6704217321877014787%2C6704219534724696331%2C6704219452277262596%2C6704216635923761412&amp;location=CT_125%2CCT_52&amp;project=&amp;type=2&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;referral_code=UM2EYUT" xr:uid="{34C9BD72-C08B-496B-81E5-666679A118BE}"/>
+    <hyperlink ref="F18" r:id="rId15" xr:uid="{D2B4C923-D608-4FA0-A8EF-5F6E73226A07}"/>
+    <hyperlink ref="F20" r:id="rId16" xr:uid="{F3FB61E7-83E4-44C0-8BB4-FF175812DA35}"/>
+    <hyperlink ref="F21" r:id="rId17" location="/job/63a595d2-923f-4fa6-8b2c-e35ed903bf03/campus_apply/thanks?jobId=63a595d2-923f-4fa6-8b2c-e35ed903bf03&amp;recommendCode=NTAMWIi&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360806625" display="https://app.mokahr.com/recommendation-apply/fenbi/1636?recommendCode=NTAMWIi#/job/63a595d2-923f-4fa6-8b2c-e35ed903bf03/campus_apply/thanks?jobId=63a595d2-923f-4fa6-8b2c-e35ed903bf03&amp;recommendCode=NTAMWIi&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360806625" xr:uid="{25DEFAD3-BE4D-4B8D-887D-4D8ACD05D1FB}"/>
+    <hyperlink ref="F22" r:id="rId18" xr:uid="{8F26C361-5B71-48C1-8835-65DF8D6BA24E}"/>
+    <hyperlink ref="F23" r:id="rId19" location="/" xr:uid="{13EC2349-AC7D-4CFA-91EE-34DBFFB5C072}"/>
+    <hyperlink ref="F24" r:id="rId20" location="/job/0290cedb-e8bf-4f41-bf01-c7c1637f1e56/campus_apply/thanks?jobId=0290cedb-e8bf-4f41-bf01-c7c1637f1e56&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSpCZzqZ&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360812501" display="https://app.mokahr.com/campus_apply/qianxin/29182?recommendCode=DSpCZzqZ#/job/0290cedb-e8bf-4f41-bf01-c7c1637f1e56/campus_apply/thanks?jobId=0290cedb-e8bf-4f41-bf01-c7c1637f1e56&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSpCZzqZ&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360812501" xr:uid="{31208427-00EF-426B-82E1-B9B8585D2722}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
--- a/秋招投递.xlsx
+++ b/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D458C683-62F9-4371-A86E-32907ECF7DF6}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{149FCF0A-53D3-40F9-8575-674016145AA3}"/>
   <bookViews>
-    <workbookView xWindow="8175" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
   <si>
     <t>目前进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -357,6 +357,105 @@
   </si>
   <si>
     <t>C++服务端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中新塞克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://recruit.sinovatio.com/resume/mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tplink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超参数科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/chaocanshu/45562#/job/675e2746-c050-44e3-bf0c-dfeee4b30c34/campus_apply/thanks?jobId=675e2746-c050-44e3-bf0c-dfeee4b30c34&amp;recommendCode=NTAMTRz&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMTRz&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361542230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿道集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/emdoor/39713#/job/a7d93c4c-ddf3-4a5d-986c-0944cdadd55e/campus_apply/thanks?jobId=a7d93c4c-ddf3-4a5d-986c-0944cdadd55e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=45993&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSFmwZUT&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361557837</t>
+  </si>
+  <si>
+    <t>http://eoptolink.zhiye.com/campus/jobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新易盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 本科浙江工业大学，研究生保研至中国科学技术大学，综合绩点均在年级前10%
+2. 适应高强度长时间脑力活动，抗压能力强，善于钻研，乐于解决问题
+3. 习惯与人沟通解决问题，善于合理地表达意见，乐于分享知识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/zte/46903#/job/cdcd53d3-a906-4149-bc7a-93be196f4ee8</t>
+  </si>
+  <si>
+    <t>博世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/candidate/applications/deliver-query/bosch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容知日新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.ronds.com/#/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康威视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campushr.hikvision.com/JobDetails.html?id=6db5a2ca8ccc449eb24acdd1bb457b3b&amp;type=2</t>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.lenovo.com.cn/resume/systemalert</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,7 +525,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -436,6 +535,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -718,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1126,82 +1228,185 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="5"/>
-      <c r="C25" s="1"/>
+      <c r="A25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="1">
+        <v>8.17</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C26" s="1"/>
+      <c r="A26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="1">
+        <v>8.17</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="1"/>
+      <c r="A27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8.17</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="1"/>
+      <c r="A28" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="1">
+        <v>8.17</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C29" s="1"/>
+      <c r="A29" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="1">
+        <v>8.17</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C30" s="1"/>
+      <c r="A30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="1">
+        <v>8.17</v>
+      </c>
+      <c r="F30" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C31" s="1"/>
+      <c r="A31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="1">
+        <v>8.17</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="5"/>
+      <c r="A32" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="1">
+        <v>8.17</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C33" s="1">
+        <v>8.17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" t="s">
+        <v>105</v>
+      </c>
       <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F34" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>11</v>
       </c>
@@ -1209,7 +1414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
         <v>12</v>
       </c>
@@ -1245,6 +1450,21 @@
     <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1270,8 +1490,14 @@
     <hyperlink ref="F22" r:id="rId18" xr:uid="{8F26C361-5B71-48C1-8835-65DF8D6BA24E}"/>
     <hyperlink ref="F23" r:id="rId19" location="/" xr:uid="{13EC2349-AC7D-4CFA-91EE-34DBFFB5C072}"/>
     <hyperlink ref="F24" r:id="rId20" location="/job/0290cedb-e8bf-4f41-bf01-c7c1637f1e56/campus_apply/thanks?jobId=0290cedb-e8bf-4f41-bf01-c7c1637f1e56&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSpCZzqZ&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360812501" display="https://app.mokahr.com/campus_apply/qianxin/29182?recommendCode=DSpCZzqZ#/job/0290cedb-e8bf-4f41-bf01-c7c1637f1e56/campus_apply/thanks?jobId=0290cedb-e8bf-4f41-bf01-c7c1637f1e56&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSpCZzqZ&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360812501" xr:uid="{31208427-00EF-426B-82E1-B9B8585D2722}"/>
+    <hyperlink ref="F26" r:id="rId21" xr:uid="{D8908D8D-339B-4A44-9EE0-2AD5C58E6FC0}"/>
+    <hyperlink ref="F27" r:id="rId22" location="/job/675e2746-c050-44e3-bf0c-dfeee4b30c34/campus_apply/thanks?jobId=675e2746-c050-44e3-bf0c-dfeee4b30c34&amp;recommendCode=NTAMTRz&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMTRz&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361542230" display="https://app.mokahr.com/campus-recruitment/chaocanshu/45562#/job/675e2746-c050-44e3-bf0c-dfeee4b30c34/campus_apply/thanks?jobId=675e2746-c050-44e3-bf0c-dfeee4b30c34&amp;recommendCode=NTAMTRz&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMTRz&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361542230" xr:uid="{D69AE79B-E8F5-4619-B3FC-A2D3930EAC09}"/>
+    <hyperlink ref="F29" r:id="rId23" xr:uid="{7B61006C-8271-40B8-A940-6232EE997636}"/>
+    <hyperlink ref="F31" r:id="rId24" xr:uid="{F856D4F5-6C72-4A99-BA85-5EFF4E444A2D}"/>
+    <hyperlink ref="F32" r:id="rId25" location="/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094" display="https://job.ronds.com/#/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094" xr:uid="{37D40191-2C9E-45A9-98EC-CB692A712A16}"/>
+    <hyperlink ref="F34" r:id="rId26" xr:uid="{F9D8BF5F-8846-4E5F-92BC-CAD57742E1FF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
--- a/秋招投递.xlsx
+++ b/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{149FCF0A-53D3-40F9-8575-674016145AA3}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12C7A6C5-5953-4EDE-A851-84B22EBF2C84}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2352" yWindow="2184" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="111">
   <si>
     <t>目前进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,6 +456,14 @@
   </si>
   <si>
     <t>https://talent.lenovo.com.cn/resume/systemalert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格科威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gcoreinc.gllue.com/portal/glluemeuser/info</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -822,20 +830,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="40.75" customWidth="1"/>
-    <col min="3" max="3" width="33.75" customWidth="1"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="1" max="2" width="40.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" customWidth="1"/>
     <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="47.25" customWidth="1"/>
+    <col min="6" max="6" width="47.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -855,13 +863,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -878,7 +886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
@@ -898,7 +906,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>21</v>
       </c>
@@ -915,7 +923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -935,7 +943,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -952,7 +960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -969,7 +977,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -986,7 +994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1003,7 +1011,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
@@ -1023,7 +1031,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -1040,7 +1048,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1057,7 +1065,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>52</v>
       </c>
@@ -1074,7 +1082,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1091,7 +1099,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -1108,7 +1116,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>59</v>
       </c>
@@ -1125,7 +1133,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1140,7 +1148,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -1155,7 +1163,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4399</v>
       </c>
@@ -1170,7 +1178,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
@@ -1185,7 +1193,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>76</v>
       </c>
@@ -1199,7 +1207,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>79</v>
       </c>
@@ -1213,7 +1221,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>82</v>
       </c>
@@ -1227,7 +1235,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>84</v>
       </c>
@@ -1238,7 +1246,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
@@ -1252,7 +1260,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>89</v>
       </c>
@@ -1266,7 +1274,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>92</v>
       </c>
@@ -1280,7 +1288,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>95</v>
       </c>
@@ -1294,7 +1302,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>97</v>
       </c>
@@ -1308,7 +1316,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>99</v>
       </c>
@@ -1322,7 +1330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>101</v>
       </c>
@@ -1336,7 +1344,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>104</v>
       </c>
@@ -1350,7 +1358,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>107</v>
       </c>
@@ -1362,51 +1370,59 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="5"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
       <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>11</v>
       </c>
@@ -1414,7 +1430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>12</v>
       </c>
@@ -1422,47 +1438,47 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>96</v>
       </c>
@@ -1496,8 +1512,9 @@
     <hyperlink ref="F31" r:id="rId24" xr:uid="{F856D4F5-6C72-4A99-BA85-5EFF4E444A2D}"/>
     <hyperlink ref="F32" r:id="rId25" location="/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094" display="https://job.ronds.com/#/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094" xr:uid="{37D40191-2C9E-45A9-98EC-CB692A712A16}"/>
     <hyperlink ref="F34" r:id="rId26" xr:uid="{F9D8BF5F-8846-4E5F-92BC-CAD57742E1FF}"/>
+    <hyperlink ref="F35" r:id="rId27" xr:uid="{126AEC9E-535F-4EAC-A74E-B6B4CEEEBC37}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
--- a/秋招投递.xlsx
+++ b/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12C7A6C5-5953-4EDE-A851-84B22EBF2C84}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFD4C35B-DE00-4300-BCBD-C16CD5F1BA1C}"/>
   <bookViews>
-    <workbookView xWindow="2352" yWindow="2184" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
   <si>
     <t>目前进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,18 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>简历筛选中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8月下旬到9月初开始面试，未说明机试时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>华为半导体与器件部门</t>
   </si>
   <si>
@@ -78,22 +66,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预计开启时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务端研发/软件测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8月中旬机试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,10 +98,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>旷视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地平线</t>
   </si>
   <si>
@@ -133,10 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无笔试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://wecruit.hotjob.cn/SU62d914f10dcad43c775ec125/pb/account.html#/myDeliver</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,10 +145,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>深圳元戎启行科技有限公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>软件工程师（深圳）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,18 +232,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测评</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://campus.iflytek.com/official-pc/delivery</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>笔试没过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -317,10 +273,6 @@
   </si>
   <si>
     <t>https://app.mokahr.com/recommendation-apply/fenbi/1636?recommendCode=NTAMWIi#/job/63a595d2-923f-4fa6-8b2c-e35ed903bf03/campus_apply/thanks?jobId=63a595d2-923f-4fa6-8b2c-e35ed903bf03&amp;recommendCode=NTAMWIi&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360806625</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中兴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -464,6 +416,81 @@
   </si>
   <si>
     <t>https://gcoreinc.gllue.com/portal/glluemeuser/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣邦微电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.51job.com/userset/my_apply.php?type=xy&amp;lang=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广联达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/glodon/1750?recommendCode=DSsAju2q#/job/955ca649-40cd-43c1-b970-e3382c6f8362/campus_apply/thanks?jobId=955ca649-40cd-43c1-b970-e3382c6f8362&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSsAju2q&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362164381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广立微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埃科光电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷视（3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/megviihr/38642#/job/7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e/campus_apply/thanks?jobId=7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSPUMq9c&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362159863</t>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文远知行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.baidu.com/jobs/detail/GRADUATE/44724ff7-85d0-447e-ae1e-681de75dea26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/jingchi/2137#/job/bfe89429-ae25-4038-8be4-6b237b1b43e7/campus_apply/thanks?jobId=bfe89429-ae25-4038-8be4-6b237b1b43e7&amp;recommendCode=NTAMpL4&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMpL4&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362189288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.alibaba.com/personal/campus-application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.163.com/app/personal/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试挂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -828,22 +855,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" customWidth="1"/>
-    <col min="5" max="5" width="42" customWidth="1"/>
-    <col min="6" max="6" width="47.21875" customWidth="1"/>
+    <col min="1" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -857,21 +883,18 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -879,642 +902,680 @@
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1">
         <v>7.31</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="3"/>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>8.1</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>8.1</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>8.1</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>8.1</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>8.1</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>8.1</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+      <c r="E10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1">
         <v>8.1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1">
         <v>8.1</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="E12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1">
         <v>8.1</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1">
         <v>8.1</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1">
         <v>8.1</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+      <c r="E15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1">
         <v>8.1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <v>8.1</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="1"/>
+      <c r="E17" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1">
         <v>8.15</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="F18" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1">
         <v>8.15</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="F19" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4399</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1">
         <v>8.15</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="F20" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1">
         <v>8.15</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="F21" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C22" s="1">
         <v>8.15</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1">
         <v>8.15</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C24" s="1">
         <v>8.15</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1">
         <v>8.17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1">
         <v>8.17</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1">
         <v>8.17</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1">
         <v>8.17</v>
       </c>
-      <c r="F28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1">
         <v>8.17</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E29" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C30" s="1">
         <v>8.17</v>
       </c>
-      <c r="F30" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1">
         <v>8.17</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E31" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C32" s="1">
         <v>8.17</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E32" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C33" s="1">
         <v>8.17</v>
       </c>
-      <c r="F33" t="s">
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="1">
+        <v>8.17</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="1">
+        <v>8.17</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1">
+        <v>8.18</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+      <c r="C37" s="1">
+        <v>8.18</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="1">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" t="s">
-        <v>105</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="F34" s="2" t="s">
+      <c r="C39" s="1">
+        <v>8.18</v>
+      </c>
+      <c r="E39" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="F35" s="2" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="5"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="5"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="5"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="5"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="5"/>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="1">
+        <v>8.18</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
       <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="5"/>
+      <c r="E41" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
       <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
+      <c r="E42" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
+        <v>106</v>
+      </c>
       <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="5"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="5"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="5"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>96</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+    </row>
+    <row r="68" spans="1:1" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A68" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{24573650-21F5-4444-9A81-179CF6549F65}"/>
-    <hyperlink ref="F5" r:id="rId2" location="/campus/my-apply" xr:uid="{E8B61EC2-B5D6-4F3C-8373-649D18E23744}"/>
-    <hyperlink ref="F6" r:id="rId3" location="/myDeliver" xr:uid="{52A54312-F932-413F-8540-BD8EA50E1027}"/>
-    <hyperlink ref="F7" r:id="rId4" location="/candidateHome/applications" xr:uid="{9B646295-FD59-4976-A8DE-BA81C116058B}"/>
-    <hyperlink ref="F8" r:id="rId5" xr:uid="{392FFA28-798E-4326-9E68-722BEAD822EE}"/>
-    <hyperlink ref="F9" r:id="rId6" xr:uid="{2D41AE62-10F1-4D4B-9A25-6B060B87EEF2}"/>
-    <hyperlink ref="F10" r:id="rId7" location="/job/d38609fe-1604-4ad1-923b-7b9627df98d1" xr:uid="{DC1064D8-B412-4DC9-8FE1-3BDFEB00C2D7}"/>
-    <hyperlink ref="F12" r:id="rId8" location="/candidateHome/applications" xr:uid="{378FA5D6-1950-416C-A9C4-A5EF505C775E}"/>
-    <hyperlink ref="F11" r:id="rId9" location="/full" xr:uid="{5B70AE1A-9D1A-49C2-A5A4-B6B74B3F705E}"/>
-    <hyperlink ref="F13" r:id="rId10" location="/job/95f53fc5-04eb-430f-a2d2-cc3f6b4596bb/campus_apply/thanks?jobId=95f53fc5-04eb-430f-a2d2-cc3f6b4596bb&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSJB5Rwh&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=356627523" display="https://app.mokahr.com/campus-recruitment/smartsenstech1/56088#/job/95f53fc5-04eb-430f-a2d2-cc3f6b4596bb/campus_apply/thanks?jobId=95f53fc5-04eb-430f-a2d2-cc3f6b4596bb&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSJB5Rwh&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=356627523" xr:uid="{D18F981C-45A9-440A-A74B-06C45C1D2870}"/>
-    <hyperlink ref="F14" r:id="rId11" location="/myDeliver" xr:uid="{47597EEA-06A6-47CE-B1CC-46E2E9679499}"/>
-    <hyperlink ref="F16" r:id="rId12" location="/campus/position" xr:uid="{688FEFA5-674A-4242-9C9A-326126B394BC}"/>
-    <hyperlink ref="F17" r:id="rId13" xr:uid="{18AB92C1-B942-4B3F-B440-51002D277DFC}"/>
-    <hyperlink ref="F19" r:id="rId14" display="https://jobs.bytedance.com/campus/position?keywords=%E5%90%8E%E7%AB%AF&amp;category=6704215862603155720%2C6704215862557018372%2C6704215956018694411%2C6704215886108035339%2C6704215957146962184%2C6704215897130666254%2C6704215888985327886%2C6704215963966900491%2C6704215958816295181%2C6704216109274368264%2C6938376045242353957%2C6704216296701036811%2C6704217321877014787%2C6704219534724696331%2C6704219452277262596%2C6704216635923761412&amp;location=CT_125%2CCT_52&amp;project=&amp;type=2&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;referral_code=UM2EYUT" xr:uid="{34C9BD72-C08B-496B-81E5-666679A118BE}"/>
-    <hyperlink ref="F18" r:id="rId15" xr:uid="{D2B4C923-D608-4FA0-A8EF-5F6E73226A07}"/>
-    <hyperlink ref="F20" r:id="rId16" xr:uid="{F3FB61E7-83E4-44C0-8BB4-FF175812DA35}"/>
-    <hyperlink ref="F21" r:id="rId17" location="/job/63a595d2-923f-4fa6-8b2c-e35ed903bf03/campus_apply/thanks?jobId=63a595d2-923f-4fa6-8b2c-e35ed903bf03&amp;recommendCode=NTAMWIi&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360806625" display="https://app.mokahr.com/recommendation-apply/fenbi/1636?recommendCode=NTAMWIi#/job/63a595d2-923f-4fa6-8b2c-e35ed903bf03/campus_apply/thanks?jobId=63a595d2-923f-4fa6-8b2c-e35ed903bf03&amp;recommendCode=NTAMWIi&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360806625" xr:uid="{25DEFAD3-BE4D-4B8D-887D-4D8ACD05D1FB}"/>
-    <hyperlink ref="F22" r:id="rId18" xr:uid="{8F26C361-5B71-48C1-8835-65DF8D6BA24E}"/>
-    <hyperlink ref="F23" r:id="rId19" location="/" xr:uid="{13EC2349-AC7D-4CFA-91EE-34DBFFB5C072}"/>
-    <hyperlink ref="F24" r:id="rId20" location="/job/0290cedb-e8bf-4f41-bf01-c7c1637f1e56/campus_apply/thanks?jobId=0290cedb-e8bf-4f41-bf01-c7c1637f1e56&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSpCZzqZ&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360812501" display="https://app.mokahr.com/campus_apply/qianxin/29182?recommendCode=DSpCZzqZ#/job/0290cedb-e8bf-4f41-bf01-c7c1637f1e56/campus_apply/thanks?jobId=0290cedb-e8bf-4f41-bf01-c7c1637f1e56&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSpCZzqZ&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360812501" xr:uid="{31208427-00EF-426B-82E1-B9B8585D2722}"/>
-    <hyperlink ref="F26" r:id="rId21" xr:uid="{D8908D8D-339B-4A44-9EE0-2AD5C58E6FC0}"/>
-    <hyperlink ref="F27" r:id="rId22" location="/job/675e2746-c050-44e3-bf0c-dfeee4b30c34/campus_apply/thanks?jobId=675e2746-c050-44e3-bf0c-dfeee4b30c34&amp;recommendCode=NTAMTRz&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMTRz&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361542230" display="https://app.mokahr.com/campus-recruitment/chaocanshu/45562#/job/675e2746-c050-44e3-bf0c-dfeee4b30c34/campus_apply/thanks?jobId=675e2746-c050-44e3-bf0c-dfeee4b30c34&amp;recommendCode=NTAMTRz&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMTRz&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361542230" xr:uid="{D69AE79B-E8F5-4619-B3FC-A2D3930EAC09}"/>
-    <hyperlink ref="F29" r:id="rId23" xr:uid="{7B61006C-8271-40B8-A940-6232EE997636}"/>
-    <hyperlink ref="F31" r:id="rId24" xr:uid="{F856D4F5-6C72-4A99-BA85-5EFF4E444A2D}"/>
-    <hyperlink ref="F32" r:id="rId25" location="/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094" display="https://job.ronds.com/#/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094" xr:uid="{37D40191-2C9E-45A9-98EC-CB692A712A16}"/>
-    <hyperlink ref="F34" r:id="rId26" xr:uid="{F9D8BF5F-8846-4E5F-92BC-CAD57742E1FF}"/>
-    <hyperlink ref="F35" r:id="rId27" xr:uid="{126AEC9E-535F-4EAC-A74E-B6B4CEEEBC37}"/>
+    <hyperlink ref="E14" r:id="rId1" location="/myDeliver" xr:uid="{47597EEA-06A6-47CE-B1CC-46E2E9679499}"/>
+    <hyperlink ref="E16" r:id="rId2" location="/campus/position" xr:uid="{688FEFA5-674A-4242-9C9A-326126B394BC}"/>
+    <hyperlink ref="E17" r:id="rId3" xr:uid="{18AB92C1-B942-4B3F-B440-51002D277DFC}"/>
+    <hyperlink ref="E19" r:id="rId4" display="https://jobs.bytedance.com/campus/position?keywords=%E5%90%8E%E7%AB%AF&amp;category=6704215862603155720%2C6704215862557018372%2C6704215956018694411%2C6704215886108035339%2C6704215957146962184%2C6704215897130666254%2C6704215888985327886%2C6704215963966900491%2C6704215958816295181%2C6704216109274368264%2C6938376045242353957%2C6704216296701036811%2C6704217321877014787%2C6704219534724696331%2C6704219452277262596%2C6704216635923761412&amp;location=CT_125%2CCT_52&amp;project=&amp;type=2&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;referral_code=UM2EYUT" xr:uid="{34C9BD72-C08B-496B-81E5-666679A118BE}"/>
+    <hyperlink ref="E18" r:id="rId5" xr:uid="{D2B4C923-D608-4FA0-A8EF-5F6E73226A07}"/>
+    <hyperlink ref="E20" r:id="rId6" xr:uid="{F3FB61E7-83E4-44C0-8BB4-FF175812DA35}"/>
+    <hyperlink ref="E21" r:id="rId7" location="/job/63a595d2-923f-4fa6-8b2c-e35ed903bf03/campus_apply/thanks?jobId=63a595d2-923f-4fa6-8b2c-e35ed903bf03&amp;recommendCode=NTAMWIi&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360806625" display="https://app.mokahr.com/recommendation-apply/fenbi/1636?recommendCode=NTAMWIi#/job/63a595d2-923f-4fa6-8b2c-e35ed903bf03/campus_apply/thanks?jobId=63a595d2-923f-4fa6-8b2c-e35ed903bf03&amp;recommendCode=NTAMWIi&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360806625" xr:uid="{25DEFAD3-BE4D-4B8D-887D-4D8ACD05D1FB}"/>
+    <hyperlink ref="E22" r:id="rId8" xr:uid="{8F26C361-5B71-48C1-8835-65DF8D6BA24E}"/>
+    <hyperlink ref="E23" r:id="rId9" location="/" xr:uid="{13EC2349-AC7D-4CFA-91EE-34DBFFB5C072}"/>
+    <hyperlink ref="E24" r:id="rId10" location="/job/0290cedb-e8bf-4f41-bf01-c7c1637f1e56/campus_apply/thanks?jobId=0290cedb-e8bf-4f41-bf01-c7c1637f1e56&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSpCZzqZ&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360812501" display="https://app.mokahr.com/campus_apply/qianxin/29182?recommendCode=DSpCZzqZ#/job/0290cedb-e8bf-4f41-bf01-c7c1637f1e56/campus_apply/thanks?jobId=0290cedb-e8bf-4f41-bf01-c7c1637f1e56&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSpCZzqZ&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360812501" xr:uid="{31208427-00EF-426B-82E1-B9B8585D2722}"/>
+    <hyperlink ref="E26" r:id="rId11" xr:uid="{D8908D8D-339B-4A44-9EE0-2AD5C58E6FC0}"/>
+    <hyperlink ref="E27" r:id="rId12" location="/job/675e2746-c050-44e3-bf0c-dfeee4b30c34/campus_apply/thanks?jobId=675e2746-c050-44e3-bf0c-dfeee4b30c34&amp;recommendCode=NTAMTRz&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMTRz&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361542230" display="https://app.mokahr.com/campus-recruitment/chaocanshu/45562#/job/675e2746-c050-44e3-bf0c-dfeee4b30c34/campus_apply/thanks?jobId=675e2746-c050-44e3-bf0c-dfeee4b30c34&amp;recommendCode=NTAMTRz&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMTRz&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361542230" xr:uid="{D69AE79B-E8F5-4619-B3FC-A2D3930EAC09}"/>
+    <hyperlink ref="E29" r:id="rId13" xr:uid="{7B61006C-8271-40B8-A940-6232EE997636}"/>
+    <hyperlink ref="E31" r:id="rId14" xr:uid="{F856D4F5-6C72-4A99-BA85-5EFF4E444A2D}"/>
+    <hyperlink ref="E32" r:id="rId15" location="/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094" display="https://job.ronds.com/#/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094" xr:uid="{37D40191-2C9E-45A9-98EC-CB692A712A16}"/>
+    <hyperlink ref="E34" r:id="rId16" xr:uid="{F9D8BF5F-8846-4E5F-92BC-CAD57742E1FF}"/>
+    <hyperlink ref="E35" r:id="rId17" xr:uid="{126AEC9E-535F-4EAC-A74E-B6B4CEEEBC37}"/>
+    <hyperlink ref="E36" r:id="rId18" xr:uid="{8702946E-771C-402D-B076-F638EAC369DC}"/>
+    <hyperlink ref="E37" r:id="rId19" location="/job/955ca649-40cd-43c1-b970-e3382c6f8362/campus_apply/thanks?jobId=955ca649-40cd-43c1-b970-e3382c6f8362&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSsAju2q&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362164381" display="https://app.mokahr.com/campus_apply/glodon/1750?recommendCode=DSsAju2q#/job/955ca649-40cd-43c1-b970-e3382c6f8362/campus_apply/thanks?jobId=955ca649-40cd-43c1-b970-e3382c6f8362&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSsAju2q&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362164381" xr:uid="{5B93FF04-FDA7-4BDD-9F64-D0462616FA48}"/>
+    <hyperlink ref="E41" r:id="rId20" xr:uid="{DEA94A4D-D6EC-4728-B3BE-300EBDA2C896}"/>
+    <hyperlink ref="E40" r:id="rId21" location="/job/bfe89429-ae25-4038-8be4-6b237b1b43e7/campus_apply/thanks?jobId=bfe89429-ae25-4038-8be4-6b237b1b43e7&amp;recommendCode=NTAMpL4&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMpL4&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362189288" display="https://app.mokahr.com/campus_apply/jingchi/2137#/job/bfe89429-ae25-4038-8be4-6b237b1b43e7/campus_apply/thanks?jobId=bfe89429-ae25-4038-8be4-6b237b1b43e7&amp;recommendCode=NTAMpL4&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMpL4&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362189288" xr:uid="{A64BDD8B-AD8C-4E23-B78D-7544BD930BC6}"/>
+    <hyperlink ref="E42" r:id="rId22" xr:uid="{4C3F93D9-1E21-47DC-AEAA-272234CAA0E1}"/>
+    <hyperlink ref="E43" r:id="rId23" xr:uid="{F3A7AE1B-F993-40E5-A53C-503DD2077C4B}"/>
+    <hyperlink ref="E13" r:id="rId24" location="/job/95f53fc5-04eb-430f-a2d2-cc3f6b4596bb/campus_apply/thanks?jobId=95f53fc5-04eb-430f-a2d2-cc3f6b4596bb&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSJB5Rwh&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=356627523" display="https://app.mokahr.com/campus-recruitment/smartsenstech1/56088#/job/95f53fc5-04eb-430f-a2d2-cc3f6b4596bb/campus_apply/thanks?jobId=95f53fc5-04eb-430f-a2d2-cc3f6b4596bb&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSJB5Rwh&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=356627523" xr:uid="{D18F981C-45A9-440A-A74B-06C45C1D2870}"/>
+    <hyperlink ref="E11" r:id="rId25" location="/full" xr:uid="{5B70AE1A-9D1A-49C2-A5A4-B6B74B3F705E}"/>
+    <hyperlink ref="E12" r:id="rId26" location="/candidateHome/applications" xr:uid="{378FA5D6-1950-416C-A9C4-A5EF505C775E}"/>
+    <hyperlink ref="E10" r:id="rId27" location="/job/d38609fe-1604-4ad1-923b-7b9627df98d1" xr:uid="{DC1064D8-B412-4DC9-8FE1-3BDFEB00C2D7}"/>
+    <hyperlink ref="E9" r:id="rId28" xr:uid="{2D41AE62-10F1-4D4B-9A25-6B060B87EEF2}"/>
+    <hyperlink ref="E8" r:id="rId29" xr:uid="{392FFA28-798E-4326-9E68-722BEAD822EE}"/>
+    <hyperlink ref="E7" r:id="rId30" location="/candidateHome/applications" xr:uid="{9B646295-FD59-4976-A8DE-BA81C116058B}"/>
+    <hyperlink ref="E6" r:id="rId31" location="/myDeliver" xr:uid="{52A54312-F932-413F-8540-BD8EA50E1027}"/>
+    <hyperlink ref="E5" r:id="rId32" location="/campus/my-apply" xr:uid="{E8B61EC2-B5D6-4F3C-8373-649D18E23744}"/>
+    <hyperlink ref="E4" r:id="rId33" xr:uid="{24573650-21F5-4444-9A81-179CF6549F65}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/秋招投递.xlsx
+++ b/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFD4C35B-DE00-4300-BCBD-C16CD5F1BA1C}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63BED705-B0F7-4FC1-87F6-061E4F7C7E14}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2352" yWindow="2184" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="122">
   <si>
     <t>目前进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,6 +491,21 @@
   </si>
   <si>
     <t>笔试挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/campus/record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo需要确认是否t投递成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://utpower.zhiye.com/campus/jobs</t>
+  </si>
+  <si>
+    <t>优特</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -855,21 +870,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E68"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="40.75" customWidth="1"/>
-    <col min="3" max="3" width="33.75" customWidth="1"/>
-    <col min="4" max="4" width="38.5" customWidth="1"/>
-    <col min="5" max="5" width="47.25" customWidth="1"/>
+    <col min="1" max="2" width="40.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" customWidth="1"/>
+    <col min="5" max="5" width="47.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -886,13 +901,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -903,7 +918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>12</v>
       </c>
@@ -918,7 +933,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -933,7 +948,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -948,7 +963,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -963,7 +978,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -978,7 +993,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -993,7 +1008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>109</v>
       </c>
@@ -1008,7 +1023,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>32</v>
       </c>
@@ -1025,7 +1040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -1040,7 +1055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1055,7 +1070,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -1070,7 +1085,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -1085,7 +1100,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1102,7 +1117,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1117,7 +1132,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>53</v>
       </c>
@@ -1132,7 +1147,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1147,7 +1162,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4399</v>
       </c>
@@ -1162,7 +1177,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>60</v>
       </c>
@@ -1177,7 +1192,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>64</v>
       </c>
@@ -1191,7 +1206,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>67</v>
       </c>
@@ -1205,7 +1220,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>70</v>
       </c>
@@ -1219,7 +1234,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -1230,7 +1245,7 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
@@ -1244,7 +1259,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>77</v>
       </c>
@@ -1258,7 +1273,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>80</v>
       </c>
@@ -1272,7 +1287,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>83</v>
       </c>
@@ -1286,7 +1301,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
@@ -1300,7 +1315,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>87</v>
       </c>
@@ -1314,7 +1329,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>89</v>
       </c>
@@ -1328,7 +1343,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>92</v>
       </c>
@@ -1342,7 +1357,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>95</v>
       </c>
@@ -1356,7 +1371,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>97</v>
       </c>
@@ -1370,7 +1385,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>99</v>
       </c>
@@ -1384,7 +1399,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>102</v>
       </c>
@@ -1398,7 +1413,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>104</v>
       </c>
@@ -1409,7 +1424,7 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>107</v>
       </c>
@@ -1423,7 +1438,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>110</v>
       </c>
@@ -1437,105 +1452,131 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B41" t="s">
         <v>106</v>
       </c>
-      <c r="C41" s="1"/>
+      <c r="C41" s="1">
+        <v>8.18</v>
+      </c>
       <c r="E41" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>113</v>
       </c>
       <c r="B42" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="1"/>
+      <c r="C42" s="1">
+        <v>8.18</v>
+      </c>
       <c r="E42" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B43" t="s">
         <v>106</v>
       </c>
-      <c r="C43" s="1"/>
+      <c r="C43" s="1">
+        <v>8.18</v>
+      </c>
       <c r="E43" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="5"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="5"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" t="s">
+        <v>106</v>
+      </c>
+      <c r="C44" s="1">
+        <v>8.19</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" t="s">
+        <v>106</v>
+      </c>
+      <c r="C45" s="1">
+        <v>8.19</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
     </row>
-    <row r="68" spans="1:1" ht="85.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:1" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="5"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1574,8 +1615,10 @@
     <hyperlink ref="E6" r:id="rId31" location="/myDeliver" xr:uid="{52A54312-F932-413F-8540-BD8EA50E1027}"/>
     <hyperlink ref="E5" r:id="rId32" location="/campus/my-apply" xr:uid="{E8B61EC2-B5D6-4F3C-8373-649D18E23744}"/>
     <hyperlink ref="E4" r:id="rId33" xr:uid="{24573650-21F5-4444-9A81-179CF6549F65}"/>
+    <hyperlink ref="E44" r:id="rId34" xr:uid="{63092609-4A08-4927-9624-AB905BEB5187}"/>
+    <hyperlink ref="E45" r:id="rId35" xr:uid="{A284D812-A9FE-4F8C-A16C-54EC02760302}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
--- a/秋招投递.xlsx
+++ b/秋招投递.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/dc8fb58427d88716/转码/笔记/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63BED705-B0F7-4FC1-87F6-061E4F7C7E14}"/>
+  <xr:revisionPtr revIDLastSave="124" documentId="13_ncr:1_{57285913-AD5F-48E9-AAF6-ED2062F146DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDD0A068-F92B-4A3C-BC00-797F63527D02}"/>
   <bookViews>
-    <workbookView xWindow="2352" yWindow="2184" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7200" yWindow="2475" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="159">
   <si>
     <t>目前进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,14 +58,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未开启秋招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>芯思原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务端研发/软件测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,18 +74,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>诺瓦星云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>快手</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C++开发工程师（杭州）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://campus.kuaishou.cn/#/campus/my-apply</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>锐捷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://app.mokahr.com/campus-recruitment/catlhr/73943#/candidateHome/applications</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,10 +169,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>oppo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>思特威*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,299 +189,467 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>https://campus.mihoyo.com/?recommendationCode=929T&amp;isRecommendation=true#/campus/position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米哈游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端软件工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.iflytek.com/official-pc/delivery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节跳动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jobs.bytedance.com/campus/position?keywords=%E5%90%8E%E7%AB%AF&amp;category=6704215862603155720%2C6704215862557018372%2C6704215956018694411%2C6704215886108035339%2C6704215957146962184%2C6704215897130666254%2C6704215888985327886%2C6704215963966900491%2C6704215958816295181%2C6704216109274368264%2C6938376045242353957%2C6704216296701036811%2C6704217321877014787%2C6704219534724696331%2C6704219452277262596%2C6704216635923761412&amp;location=CT_125%2CCT_52&amp;project=&amp;type=2&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;referral_code=UM2EYUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.meituan.com/apply-record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://hr.4399om.com/?r=userCenter/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猿辅导</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/recommendation-apply/fenbi/1636?recommendCode=NTAMWIi#/job/63a595d2-923f-4fa6-8b2c-e35ed903bf03/campus_apply/thanks?jobId=63a595d2-923f-4fa6-8b2c-e35ed903bf03&amp;recommendCode=NTAMWIi&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360806625</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万集科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://fpq5u8xh3h.jobs.feishu.cn/201211/position/application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影石创新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://insta360.m.zhiye.com/#/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/qianxin/29182?recommendCode=DSpCZzqZ#/job/0290cedb-e8bf-4f41-bf01-c7c1637f1e56/campus_apply/thanks?jobId=0290cedb-e8bf-4f41-bf01-c7c1637f1e56&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSpCZzqZ&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360812501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇安信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中新塞克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://recruit.sinovatio.com/resume/mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超参数科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/chaocanshu/45562#/job/675e2746-c050-44e3-bf0c-dfeee4b30c34/campus_apply/thanks?jobId=675e2746-c050-44e3-bf0c-dfeee4b30c34&amp;recommendCode=NTAMTRz&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMTRz&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361542230</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿道集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/emdoor/39713#/job/a7d93c4c-ddf3-4a5d-986c-0944cdadd55e/campus_apply/thanks?jobId=a7d93c4c-ddf3-4a5d-986c-0944cdadd55e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=45993&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSFmwZUT&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361557837</t>
+  </si>
+  <si>
+    <t>http://eoptolink.zhiye.com/campus/jobs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新易盛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中兴通讯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/zte/46903#/job/cdcd53d3-a906-4149-bc7a-93be196f4ee8</t>
+  </si>
+  <si>
+    <t>博世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/m/candidate/applications/deliver-query/bosch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容知日新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌入式开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://job.ronds.com/#/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康威视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campushr.hikvision.com/JobDetails.html?id=6db5a2ca8ccc449eb24acdd1bb457b3b&amp;type=2</t>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.lenovo.com.cn/resume/systemalert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格科威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gcoreinc.gllue.com/portal/glluemeuser/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣邦微电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.51job.com/userset/my_apply.php?type=xy&amp;lang=c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广联达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/glodon/1750?recommendCode=DSsAju2q#/job/955ca649-40cd-43c1-b970-e3382c6f8362/campus_apply/thanks?jobId=955ca649-40cd-43c1-b970-e3382c6f8362&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSsAju2q&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362164381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广立微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旷视（3）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/megviihr/38642#/job/7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e/campus_apply/thanks?jobId=7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSPUMq9c&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362159863</t>
+  </si>
+  <si>
+    <t>深圳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文远知行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.baidu.com/jobs/detail/GRADUATE/44724ff7-85d0-447e-ae1e-681de75dea26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/jingchi/2137#/job/bfe89429-ae25-4038-8be4-6b237b1b43e7/campus_apply/thanks?jobId=bfe89429-ae25-4038-8be4-6b237b1b43e7&amp;recommendCode=NTAMpL4&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMpL4&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362189288</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里巴巴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://talent.alibaba.com/personal/campus-application</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.163.com/app/personal/apply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔试挂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://careers.oppo.com/campus/record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oppo需要确认是否t投递成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://utpower.zhiye.com/campus/jobs</t>
+  </si>
+  <si>
+    <t>优特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>https://transsion.zhiye.com/Portal/Apply/Index</t>
-  </si>
-  <si>
-    <t>https://campus.mihoyo.com/?recommendationCode=929T&amp;isRecommendation=true#/campus/position</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米哈游</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科大讯飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端软件工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.iflytek.com/official-pc/delivery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字节跳动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://jobs.bytedance.com/campus/position?keywords=%E5%90%8E%E7%AB%AF&amp;category=6704215862603155720%2C6704215862557018372%2C6704215956018694411%2C6704215886108035339%2C6704215957146962184%2C6704215897130666254%2C6704215888985327886%2C6704215963966900491%2C6704215958816295181%2C6704216109274368264%2C6938376045242353957%2C6704216296701036811%2C6704217321877014787%2C6704219534724696331%2C6704219452277262596%2C6704216635923761412&amp;location=CT_125%2CCT_52&amp;project=&amp;type=2&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;functionCategory=&amp;referral_code=UM2EYUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.meituan.com/apply-record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://hr.4399om.com/?r=userCenter/index</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猿辅导</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务端开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/recommendation-apply/fenbi/1636?recommendCode=NTAMWIi#/job/63a595d2-923f-4fa6-8b2c-e35ed903bf03/campus_apply/thanks?jobId=63a595d2-923f-4fa6-8b2c-e35ed903bf03&amp;recommendCode=NTAMWIi&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360806625</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万集科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://fpq5u8xh3h.jobs.feishu.cn/201211/position/application</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影石创新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://insta360.m.zhiye.com/#/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/qianxin/29182?recommendCode=DSpCZzqZ#/job/0290cedb-e8bf-4f41-bf01-c7c1637f1e56/campus_apply/thanks?jobId=0290cedb-e8bf-4f41-bf01-c7c1637f1e56&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSpCZzqZ&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=360812501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奇安信</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C++服务端开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>磐启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中新塞克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://recruit.sinovatio.com/resume/mine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tplink</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超参数科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/chaocanshu/45562#/job/675e2746-c050-44e3-bf0c-dfeee4b30c34/campus_apply/thanks?jobId=675e2746-c050-44e3-bf0c-dfeee4b30c34&amp;recommendCode=NTAMTRz&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMTRz&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361542230</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亿道集团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/emdoor/39713#/job/a7d93c4c-ddf3-4a5d-986c-0944cdadd55e/campus_apply/thanks?jobId=a7d93c4c-ddf3-4a5d-986c-0944cdadd55e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BcampusSiteId%5D=45993&amp;applyInfo%5BaimWorkCity%5D=%E6%B7%B1%E5%9C%B3%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSFmwZUT&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361557837</t>
-  </si>
-  <si>
-    <t>http://eoptolink.zhiye.com/campus/jobs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新易盛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 本科浙江工业大学，研究生保研至中国科学技术大学，综合绩点均在年级前10%
-2. 适应高强度长时间脑力活动，抗压能力强，善于钻研，乐于解决问题
-3. 习惯与人沟通解决问题，善于合理地表达意见，乐于分享知识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中兴通讯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/zte/46903#/job/cdcd53d3-a906-4149-bc7a-93be196f4ee8</t>
-  </si>
-  <si>
-    <t>博世</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/m/candidate/applications/deliver-query/bosch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>容知日新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌入式开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://job.ronds.com/#/job/79b7f9ce-fe04-4d7b-911e-97827ab25a01/campus_apply/thanks?jobId=79b7f9ce-fe04-4d7b-911e-97827ab25a01&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%90%88%E8%82%A5%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSqFc48J&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=361800094</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海康威视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campushr.hikvision.com/JobDetails.html?id=6db5a2ca8ccc449eb24acdd1bb457b3b&amp;type=2</t>
-  </si>
-  <si>
-    <t>联想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.lenovo.com.cn/resume/systemalert</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格科威</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://gcoreinc.gllue.com/portal/glluemeuser/info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圣邦微电子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IT开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.51job.com/userset/my_apply.php?type=xy&amp;lang=c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广联达</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/glodon/1750?recommendCode=DSsAju2q#/job/955ca649-40cd-43c1-b970-e3382c6f8362/campus_apply/thanks?jobId=955ca649-40cd-43c1-b970-e3382c6f8362&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E4%B8%8A%E6%B5%B7%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSsAju2q&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362164381</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广立微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>埃科光电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>旷视（3）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus-recruitment/megviihr/38642#/job/7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e/campus_apply/thanks?jobId=7fbae2ff-5bd9-4b8e-8cb1-7e51cb3e6b9e&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSPUMq9c&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362159863</t>
-  </si>
-  <si>
-    <t>深圳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文远知行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.baidu.com/jobs/detail/GRADUATE/44724ff7-85d0-447e-ae1e-681de75dea26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://app.mokahr.com/campus_apply/jingchi/2137#/job/bfe89429-ae25-4038-8be4-6b237b1b43e7/campus_apply/thanks?jobId=bfe89429-ae25-4038-8be4-6b237b1b43e7&amp;recommendCode=NTAMpL4&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8D%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=NTAMpL4&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362189288</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿里巴巴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://talent.alibaba.com/personal/campus-application</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网易互联网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://campus.163.com/app/personal/apply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笔试挂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://careers.oppo.com/campus/record</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oppo需要确认是否t投递成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://utpower.zhiye.com/campus/jobs</t>
-  </si>
-  <si>
-    <t>优特</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/bjhl/24358?recommendCode=DSC2E9SW#/job/4fc19650-63cd-42b4-8b79-86a231e05367/campus_apply/thanks?jobId=4fc19650-63cd-42b4-8b79-86a231e05367&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSC2E9SW&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362652893</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇虎360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cloud.italent.cn/PageHome/Index?product=MicroRecommend&amp;keyName=Nusion&amp;pageCode=DeliveryForm&amp;appCode=MicroRecommend&amp;submissionKey=aaec3a31-4d50-4643-9cc9-1372f5986da1&amp;shadow_context=%7B%22elinkId%22:%222df853b6-e91c-4492-b3a3-2934ada1ebb4%22%7D#/viewDynamic?t=t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安克创新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MjsxNjYwNzI1Njk2MDI2OzcxMTI1OTI5ODU2NDg5MDYyNDI7NzEzMjc1OTQ0NjkyMTYxMTUzMg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cmbntjob.cmbchina.com/pages/mycenter/default.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招银网络科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.jd.com/#/deliverSuccess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三七互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus_apply/37/25238?recommendCode=DS9wSXxf#/job/987d1bf4-0006-4cfa-969f-42ca536ee45d/campus_apply/thanks?jobId=987d1bf4-0006-4cfa-969f-42ca536ee45d&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%B9%BF%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS9wSXxf&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362653381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星辉游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://rastargame.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交银金科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.51job.com/resume/resume_center.php</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招行信用卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://career.cloud.cmbchina.com/index.html#applyHistory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兴业数金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱内推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bilibili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jobs.bilibili.com/campus/positions?code=1&amp;type=3&amp;token=cb5e2e97-151b-422f-8d9d-77d34846bbb6&amp;page=3</t>
+  </si>
+  <si>
+    <t>https://xiaoyuan.zhaopin.com/scrd/delivery/record</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网联清算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++服务端开发/测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荔枝FM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lizhi2021.jobs.feishu.cn/referral/campus/resume/applied?token=MzsxNjYwNzM2MjYyMTUzOzcwODA2ODUxOTI1NDU2MTU4NzM7MA</t>
+  </si>
+  <si>
+    <t>贝壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ke.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜狐畅游</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/cyou-inc/42233#/jobs?page=4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去哪儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/recommendation-apply/qunar/4208?recommendCode=AD3F7&amp;codeType=1#/job/fd939a89-1903-43c0-8b2e-31e4d6e1abcc/campus_apply/thanks?jobId=fd939a89-1903-43c0-8b2e-31e4d6e1abcc&amp;recommendCode=NTAD3F7&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362722794</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云鲸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://narwal.zhiye.com/Portal/Resume/ResumeItem?stepId=4&amp;jId=620668023&amp;sId=0&amp;r=%2fzpdetail%2f620668023%3fp%3d1%255E2%26PageIndex%3d1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mobvista.zhiye.com/Portal/Apply/Index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天翼云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度小满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://app.mokahr.com/campus-recruitment/duxiaoman/74050#/</t>
+  </si>
+  <si>
+    <t>https://wecruit.hotjob.cn/SU62b2ae672f9d24458d72f9cc/pb/account.html#/myDeliver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>南方数码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/WgbJtVO_xzEmbxtLoH9Wmg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://campus.hundsun.com/form/friendly?fromPage=job&amp;CategoryId=2&amp;submissionId=118293626</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,6 +657,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,7 +722,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -588,6 +735,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -872,19 +1022,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" customWidth="1"/>
-    <col min="5" max="5" width="47.21875" customWidth="1"/>
+    <col min="1" max="2" width="40.75" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
+    <col min="4" max="4" width="38.5" customWidth="1"/>
+    <col min="5" max="5" width="47.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -898,16 +1048,16 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
@@ -918,666 +1068,953 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>7.31</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <v>8.1</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>8.1</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>8.1</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>8.1</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>8.1</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1">
         <v>8.1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
         <v>8.1</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1">
         <v>8.1</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1">
         <v>8.1</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C15" s="1">
         <v>8.1</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1">
         <v>8.1</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="C17" s="1">
-        <v>8.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1">
         <v>8.15</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C19" s="1">
         <v>8.15</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4399</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C20" s="1">
         <v>8.15</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C21" s="1">
         <v>8.15</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C22" s="1">
         <v>8.15</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C23" s="1">
         <v>8.15</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="C24" s="1">
-        <v>8.15</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1">
         <v>8.17</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B26" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1">
         <v>8.17</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1">
         <v>8.17</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1">
         <v>8.17</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1">
         <v>8.17</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1">
         <v>8.17</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C31" s="1">
         <v>8.17</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1">
         <v>8.17</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1">
         <v>8.17</v>
       </c>
       <c r="E33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1">
         <v>8.17</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B35" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C35" s="1">
         <v>8.17</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1">
         <v>8.18</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C37" s="1">
         <v>8.18</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C38" s="1">
         <v>8.18</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1">
         <v>8.18</v>
       </c>
       <c r="E39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C40" s="1">
         <v>8.18</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C41" s="1">
         <v>8.18</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C42" s="1">
         <v>8.18</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C43" s="1">
         <v>8.18</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1">
         <v>8.19</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C45" s="1">
         <v>8.19</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-    </row>
-    <row r="68" spans="1:1" ht="82.8" x14ac:dyDescent="0.25">
-      <c r="A68" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B56" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E56" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E58" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B59" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" t="s">
+        <v>83</v>
+      </c>
+      <c r="C62" s="7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E65" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B67" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67" s="7">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="6"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="5"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="5"/>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="5"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="5"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>105</v>
-      </c>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1617,8 +2054,26 @@
     <hyperlink ref="E4" r:id="rId33" xr:uid="{24573650-21F5-4444-9A81-179CF6549F65}"/>
     <hyperlink ref="E44" r:id="rId34" xr:uid="{63092609-4A08-4927-9624-AB905BEB5187}"/>
     <hyperlink ref="E45" r:id="rId35" xr:uid="{A284D812-A9FE-4F8C-A16C-54EC02760302}"/>
+    <hyperlink ref="E15" r:id="rId36" xr:uid="{5F295242-999E-40E5-B3D0-FC63A75529DB}"/>
+    <hyperlink ref="E46" r:id="rId37" location="/job/4fc19650-63cd-42b4-8b79-86a231e05367/campus_apply/thanks?jobId=4fc19650-63cd-42b4-8b79-86a231e05367&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSC2E9SW&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362652893" display="https://app.mokahr.com/campus_apply/bjhl/24358?recommendCode=DSC2E9SW#/job/4fc19650-63cd-42b4-8b79-86a231e05367/campus_apply/thanks?jobId=4fc19650-63cd-42b4-8b79-86a231e05367&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DSC2E9SW&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362652893" xr:uid="{F924C742-A6C7-4A23-8AD5-5F76AC75D1D4}"/>
+    <hyperlink ref="E47" r:id="rId38" location="/viewDynamic?t=t" display="https://cloud.italent.cn/PageHome/Index?product=MicroRecommend&amp;keyName=Nusion&amp;pageCode=DeliveryForm&amp;appCode=MicroRecommend&amp;submissionKey=aaec3a31-4d50-4643-9cc9-1372f5986da1&amp;shadow_context=%7B%22elinkId%22:%222df853b6-e91c-4492-b3a3-2934ada1ebb4%22%7D#/viewDynamic?t=t" xr:uid="{C6404F55-FDF4-44D3-A49B-2D70C90DFF8B}"/>
+    <hyperlink ref="E49" r:id="rId39" xr:uid="{F22E1D41-671B-475E-B515-367AEDE5AE39}"/>
+    <hyperlink ref="E50" r:id="rId40" location="/deliverSuccess" xr:uid="{19E77E4D-2BEE-4F94-A068-01EE640F1C23}"/>
+    <hyperlink ref="E51" r:id="rId41" location="/job/987d1bf4-0006-4cfa-969f-42ca536ee45d/campus_apply/thanks?jobId=987d1bf4-0006-4cfa-969f-42ca536ee45d&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%B9%BF%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS9wSXxf&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362653381" display="https://app.mokahr.com/campus_apply/37/25238?recommendCode=DS9wSXxf#/job/987d1bf4-0006-4cfa-969f-42ca536ee45d/campus_apply/thanks?jobId=987d1bf4-0006-4cfa-969f-42ca536ee45d&amp;codeType=2&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%B9%BF%E5%B7%9E%E5%B8%82&amp;applyInfo%5BrecommendCode%5D=DS9wSXxf&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362653381" xr:uid="{40DBFE18-2A3E-4935-9BCB-58314CEA506D}"/>
+    <hyperlink ref="E52" r:id="rId42" xr:uid="{44DA8F16-2596-4178-A3CB-4D058191F2EC}"/>
+    <hyperlink ref="E53" r:id="rId43" xr:uid="{D5D3FB8A-DD23-43A7-B831-9F526F2056BB}"/>
+    <hyperlink ref="E54" r:id="rId44" location="applyHistory" xr:uid="{C3515084-6BBC-492A-9B5E-90DF84751603}"/>
+    <hyperlink ref="E57" r:id="rId45" xr:uid="{8E490727-515D-459A-A324-0B985DF73F69}"/>
+    <hyperlink ref="E59" r:id="rId46" xr:uid="{F14F8803-D8CF-4AF5-AE1D-66BD1CF37B80}"/>
+    <hyperlink ref="E60" r:id="rId47" location="/jobs?page=4" xr:uid="{04EF28EB-197B-4FE0-8BCF-0F898D637A93}"/>
+    <hyperlink ref="E61" r:id="rId48" location="/job/fd939a89-1903-43c0-8b2e-31e4d6e1abcc/campus_apply/thanks?jobId=fd939a89-1903-43c0-8b2e-31e4d6e1abcc&amp;recommendCode=NTAD3F7&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362722794" display="https://app.mokahr.com/recommendation-apply/qunar/4208?recommendCode=AD3F7&amp;codeType=1#/job/fd939a89-1903-43c0-8b2e-31e4d6e1abcc/campus_apply/thanks?jobId=fd939a89-1903-43c0-8b2e-31e4d6e1abcc&amp;recommendCode=NTAD3F7&amp;codeType=1&amp;isRecommendation=false&amp;applyInfo%5BaimWorkCity%5D=%E5%8C%97%E4%BA%AC%E5%B8%82&amp;candidateName=%E5%AD%99%E5%BF%97%E8%B1%AA&amp;candidateId=362722794" xr:uid="{9DB32189-8199-40FA-9CE0-0C2A3FCE176A}"/>
+    <hyperlink ref="E62" r:id="rId49" xr:uid="{C5FF77C5-948A-44BA-BB67-12B9FC155F97}"/>
+    <hyperlink ref="E63" r:id="rId50" xr:uid="{661A3562-EB0C-4B77-9EB2-BE908B9CA27A}"/>
+    <hyperlink ref="E64" r:id="rId51" location="/myDeliver" xr:uid="{F1678EEA-1F24-47D6-A563-BA54384BDA19}"/>
+    <hyperlink ref="E66" r:id="rId52" xr:uid="{ADCF6B49-5740-44B1-A3CF-DE1E13A37FE4}"/>
+    <hyperlink ref="E67" r:id="rId53" xr:uid="{4C553459-855D-423C-8601-D816E1063706}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId36"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>